--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
@@ -143,7 +143,7 @@
             builder
             .username(username)
             .password(password)
-            .role(user)
+            .role("USER")
             .disabled(!active)
             .build();
         userDetailsManager.createUser(userDetails);
@@ -457,6 +457,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,15 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,20 +495,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,7 +570,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1053"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1054"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -957,285 +957,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1243,6 +1213,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,55 +1285,55 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="24"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,49 +123,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@Autowired
-    private UserDetailsManager userDetailsManager;
-    public void createSpringUser(String username, String password, boolean active) 
-        UserBuilder builder = User.withDefaultPasswordEncoder();
-        UserDetails userDetails = 
-            builder
-            .username(username)
-            .password(password)
-            .role("USER")
-            .disabled(!active)
-            .build();
-        userDetailsManager.createUser(userDetails);
-    public void updateSpringUser(String username, String password, boolean active) 
-        UserDetails userDetails = userDetailsManager.loadUserByUsername(username);
-        UserBuilder builder;
-        // 新規パスワードが渡された場合はそれを設定する。渡されていない場合は元のパスワードを設定する。
-        if (!password.equals("")) 
-            builder = User.withDefaultPasswordEncoder();
-            builder.password(password);
-         else 
-            builder = User.builder();
-            builder.password(userDetails.getPassword());
-        UserDetails newUserDetails = 
-            builder
-            .username(username)
-            .authorities(userDetails.getAuthorities())
-            .disabled(!active)
-            .build();
-        userDetailsManager.updateUser(newUserDetails);
+    <t xml:space="preserve"> createSpringUser(String username, String password, boolean active) ：void
 </t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,6 +416,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,15 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -521,6 +477,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,7 +529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1059"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -957,285 +916,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1243,6 +1172,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1254,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:I14"/>
     </sheetView>
   </sheetViews>
@@ -1285,66 +1244,66 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32205" yWindow="435" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇クラス!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,15 +416,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +425,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -477,9 +480,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,10 +511,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>211455</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -529,7 +529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1059"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1060"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -544,7 +544,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="676275"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -870,16 +870,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -896,7 +896,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -907,264 +907,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1172,36 +1202,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,21 +1217,21 @@
       <selection activeCell="B9" sqref="B9:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="8" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
@@ -1243,67 +1243,67 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(SpringUserServiceクラス) .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView minimized="1" xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> createSpringUser(String username, String password, boolean active) ：void
+    <t xml:space="preserve"> `+ createSpringUser(String username, String password, boolean active) ：void
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,6 +416,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -424,15 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,7 +529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1060"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1062"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -916,285 +916,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1202,6 +1172,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:I14"/>
     </sheetView>
   </sheetViews>
